--- a/biology/Botanique/Rollinier/Rollinier.xlsx
+++ b/biology/Botanique/Rollinier/Rollinier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Rollinier, Cérimoya, Corossol sauvage, ou Biriba (anglais), Biriba (espagnol)[2] (nom scientifique : Annona mucosa Jacq., syn. Rollinia pulchrinervia) est une espèce de plantes à fleurs de la famille des Annonacées. Celle-ci compte 120 espèces botaniques différentes, regroupant près de 2 000 espèces d'annonacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Rollinier, Cérimoya, Corossol sauvage, ou Biriba (anglais), Biriba (espagnol) (nom scientifique : Annona mucosa Jacq., syn. Rollinia pulchrinervia) est une espèce de plantes à fleurs de la famille des Annonacées. Celle-ci compte 120 espèces botaniques différentes, regroupant près de 2 000 espèces d'annonacées.
 Il est aussi appelé « chérimole » ou « grozat » par la population locale, ou « zat » à Saint-Leu.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Ses origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de la Guyane et du nord du Brésil.
 La date de son introduction sur l’île de La Réunion n’est pas connue. Cet arbre se trouve le plus souvent dans les anciens vergers ou cours créoles. 
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rollinier est un arbre de taille moyenne pouvant atteindre 7 à 8 mètres de hauteur, les fleurs  sont disposées par paires, et sont très odorantes. Son fruit de couleur jaunâtre est globuleux, mesurant de 8 à 12 cm de diamètre, son contour est marqué et se termine par des petites pointes foncées. Sa pulpe est charnue, blanche et crémeuse avec de nombreuses graines marron qui sont agencées côte à côte.
 Son fruit se consomme cru quand il est mûr, et son goût est similaire au fruit de l’attier qui appartient à la même famille des Annonacées. 
@@ -576,7 +592,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture du rollinier se fait à partir de ses graines qu’on replante pour obtenir des plants. Souvent pour varier les  diversités des espèces, il est effectué des greffes sur l’arbre (avec la même espèce ou le même genre) ce qui aboutit à la production d’une nouvelle espèce de fruit qui apparaît trois à quatre ans plus tard dont la saveur ou l’aspect se modifie.
 Il demande souvent un enracinement peu profond et une irrigation peu abondante.
@@ -609,7 +627,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">F. Le Bellec &amp; V. Renard, Le grand livre des fruits tropicaux.
 </t>
